--- a/monitoring-iku-22-pembilang.xlsx
+++ b/monitoring-iku-22-pembilang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
   <si>
     <t>Persentase mahasiswa S1 dan D3/D4 yang meraih prestasi dalam kompetisi peringkat 1 s.d harapan III</t>
   </si>
@@ -551,6 +551,12 @@
     <t>National writing competition</t>
   </si>
   <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>Juara 3 Dalam Lomba Desain Poster Yang Diadakan Oleh Himpunan Mahasiswa Matematika Universitas Jambi</t>
+  </si>
+  <si>
     <t>F1C222047</t>
   </si>
   <si>
@@ -1017,6 +1023,15 @@
   </si>
   <si>
     <t>Lomba essay glory fest dies natalis ke-12</t>
+  </si>
+  <si>
+    <t>F0A024006</t>
+  </si>
+  <si>
+    <t>M.PADIL NAZWAN</t>
+  </si>
+  <si>
+    <t>Musabaqah Tilawatil Qur ’ an Mahasiswa (MTQM)</t>
   </si>
   <si>
     <t>F0A024001</t>
@@ -1590,7 +1605,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2801,19 +2816,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
         <v>178</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>179</v>
       </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" t="s">
-        <v>180</v>
-      </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
@@ -2824,16 +2839,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
         <v>181</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
         <v>182</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>183</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2847,19 +2862,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
         <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
@@ -2876,13 +2891,13 @@
         <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -2893,10 +2908,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
         <v>190</v>
@@ -2908,7 +2923,7 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -2916,16 +2931,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
         <v>192</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>193</v>
-      </c>
-      <c r="C59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" t="s">
-        <v>195</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -2939,19 +2954,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
         <v>196</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>197</v>
       </c>
-      <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" t="s">
-        <v>199</v>
-      </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
         <v>25</v>
@@ -2962,45 +2977,45 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>202</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
         <v>31</v>
@@ -3008,42 +3023,42 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
         <v>203</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>204</v>
       </c>
-      <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" t="s">
-        <v>205</v>
-      </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -3054,19 +3069,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
         <v>208</v>
       </c>
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" t="s">
-        <v>210</v>
-      </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -3077,16 +3092,16 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>210</v>
+      </c>
+      <c r="C66" t="s">
         <v>211</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>212</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>213</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3100,42 +3115,42 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
         <v>214</v>
-      </c>
-      <c r="B68" t="s">
-        <v>215</v>
       </c>
       <c r="C68" t="s">
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
@@ -3146,45 +3161,45 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
         <v>217</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
         <v>218</v>
       </c>
-      <c r="C69" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" t="s">
-        <v>219</v>
-      </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
         <v>220</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" t="s">
         <v>221</v>
       </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>222</v>
-      </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
@@ -3192,19 +3207,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -3215,19 +3230,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
         <v>225</v>
       </c>
-      <c r="C72" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" t="s">
-        <v>227</v>
-      </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -3238,17 +3253,17 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="s">
         <v>228</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>229</v>
       </c>
-      <c r="C73" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" t="s">
-        <v>231</v>
-      </c>
       <c r="E73" t="s">
         <v>12</v>
       </c>
@@ -3256,44 +3271,44 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
         <v>232</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>233</v>
       </c>
-      <c r="C74" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" t="s">
-        <v>235</v>
-      </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3307,68 +3322,68 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" t="s">
         <v>238</v>
       </c>
-      <c r="C76" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" t="s">
-        <v>240</v>
-      </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" t="s">
         <v>241</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>242</v>
       </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>243</v>
-      </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
         <v>244</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
         <v>245</v>
       </c>
-      <c r="C78" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" t="s">
-        <v>247</v>
-      </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -3376,19 +3391,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
         <v>248</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>249</v>
       </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>250</v>
-      </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s">
         <v>25</v>
@@ -3399,22 +3414,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" t="s">
         <v>251</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
         <v>252</v>
       </c>
-      <c r="C80" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" t="s">
-        <v>253</v>
-      </c>
       <c r="E80" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
@@ -3422,22 +3437,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" t="s">
         <v>254</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
         <v>255</v>
       </c>
-      <c r="C81" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" t="s">
-        <v>257</v>
-      </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -3445,10 +3460,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C82" t="s">
         <v>258</v>
@@ -3457,7 +3472,7 @@
         <v>259</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
         <v>25</v>
@@ -3468,10 +3483,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
         <v>260</v>
@@ -3491,16 +3506,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
         <v>262</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>263</v>
-      </c>
-      <c r="C84" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" t="s">
-        <v>265</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3514,68 +3529,68 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
         <v>266</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
         <v>267</v>
       </c>
-      <c r="C85" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" t="s">
-        <v>268</v>
-      </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
         <v>270</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
         <v>271</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>272</v>
       </c>
-      <c r="C87" t="s">
-        <v>273</v>
-      </c>
-      <c r="D87" t="s">
-        <v>75</v>
-      </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
         <v>14</v>
@@ -3583,16 +3598,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -3601,21 +3616,21 @@
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
+        <v>273</v>
+      </c>
+      <c r="B89" t="s">
         <v>274</v>
       </c>
-      <c r="B89" t="s">
-        <v>275</v>
-      </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
@@ -3624,24 +3639,24 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" t="s">
         <v>278</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>279</v>
       </c>
-      <c r="C90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" t="s">
-        <v>280</v>
-      </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -3652,19 +3667,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" t="s">
         <v>281</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" t="s">
         <v>282</v>
       </c>
-      <c r="C91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D91" t="s">
-        <v>283</v>
-      </c>
       <c r="E91" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -3675,22 +3690,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" t="s">
         <v>284</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
         <v>285</v>
       </c>
-      <c r="C92" t="s">
-        <v>286</v>
-      </c>
-      <c r="D92" t="s">
-        <v>287</v>
-      </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -3698,19 +3713,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E93" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
         <v>25</v>
@@ -3721,19 +3736,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s">
         <v>25</v>
@@ -3744,16 +3759,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -3767,16 +3782,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -3790,16 +3805,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -3813,19 +3828,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
         <v>25</v>
@@ -3836,19 +3851,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
         <v>290</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F99" t="s">
         <v>25</v>
@@ -3859,19 +3874,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
@@ -3882,19 +3897,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D101" t="s">
         <v>293</v>
       </c>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="F101" t="s">
         <v>25</v>
@@ -3905,19 +3920,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F102" t="s">
         <v>25</v>
@@ -3928,19 +3943,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C103" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
         <v>25</v>
@@ -3951,19 +3966,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E104" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
         <v>25</v>
@@ -3974,22 +3989,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" t="s">
         <v>295</v>
-      </c>
-      <c r="B105" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" t="s">
-        <v>298</v>
       </c>
       <c r="E105" t="s">
         <v>84</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
         <v>14</v>
@@ -3997,22 +4012,22 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" t="s">
         <v>299</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>300</v>
       </c>
-      <c r="C106" t="s">
-        <v>301</v>
-      </c>
-      <c r="D106" t="s">
-        <v>302</v>
-      </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4020,22 +4035,22 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" t="s">
         <v>303</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>304</v>
       </c>
-      <c r="C107" t="s">
-        <v>230</v>
-      </c>
-      <c r="D107" t="s">
-        <v>305</v>
-      </c>
       <c r="E107" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G107" t="s">
         <v>14</v>
@@ -4043,22 +4058,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" t="s">
         <v>306</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" t="s">
         <v>307</v>
       </c>
-      <c r="C108" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" t="s">
-        <v>308</v>
-      </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -4066,19 +4081,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
+        <v>308</v>
+      </c>
+      <c r="B109" t="s">
         <v>309</v>
-      </c>
-      <c r="B109" t="s">
-        <v>310</v>
       </c>
       <c r="C109" t="s">
         <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
         <v>25</v>
@@ -4089,19 +4104,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
         <v>173</v>
       </c>
       <c r="D110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F110" t="s">
         <v>25</v>
@@ -4112,19 +4127,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
         <v>312</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" t="s">
         <v>313</v>
       </c>
-      <c r="C111" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" t="s">
-        <v>315</v>
-      </c>
       <c r="E111" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
         <v>25</v>
@@ -4135,22 +4150,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112" t="s">
         <v>316</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>317</v>
       </c>
-      <c r="C112" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" t="s">
-        <v>318</v>
-      </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
         <v>14</v>
@@ -4158,22 +4173,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" t="s">
         <v>319</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
         <v>320</v>
       </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
-      <c r="D113" t="s">
-        <v>189</v>
-      </c>
       <c r="E113" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
@@ -4187,13 +4202,13 @@
         <v>322</v>
       </c>
       <c r="C114" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F114" t="s">
         <v>25</v>
@@ -4204,22 +4219,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
         <v>324</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" t="s">
         <v>325</v>
       </c>
-      <c r="C115" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" t="s">
-        <v>326</v>
-      </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
@@ -4227,22 +4242,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" t="s">
         <v>327</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116" t="s">
         <v>328</v>
       </c>
-      <c r="C116" t="s">
-        <v>45</v>
-      </c>
-      <c r="D116" t="s">
-        <v>315</v>
-      </c>
       <c r="E116" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -4256,30 +4271,30 @@
         <v>330</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>333</v>
@@ -4288,27 +4303,27 @@
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
+        <v>331</v>
+      </c>
+      <c r="B119" t="s">
+        <v>332</v>
+      </c>
+      <c r="C119" t="s">
         <v>334</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>335</v>
       </c>
-      <c r="C119" t="s">
-        <v>336</v>
-      </c>
-      <c r="D119" t="s">
-        <v>337</v>
-      </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
         <v>25</v>
@@ -4319,22 +4334,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="D120" t="s">
         <v>338</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -4342,19 +4357,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C121" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D121" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
         <v>25</v>
@@ -4365,22 +4380,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" t="s">
         <v>341</v>
       </c>
-      <c r="B122" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>343</v>
-      </c>
-      <c r="D122" t="s">
-        <v>344</v>
       </c>
       <c r="E122" t="s">
         <v>84</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
         <v>14</v>
@@ -4388,22 +4403,22 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" t="s">
+        <v>344</v>
+      </c>
+      <c r="D123" t="s">
         <v>345</v>
       </c>
-      <c r="B123" t="s">
-        <v>346</v>
-      </c>
-      <c r="C123" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" t="s">
-        <v>347</v>
-      </c>
       <c r="E123" t="s">
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G123" t="s">
         <v>14</v>
@@ -4411,22 +4426,22 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="D124" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G124" t="s">
         <v>14</v>
@@ -4434,19 +4449,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
         <v>20</v>
@@ -4457,19 +4472,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="D126" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E126" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
         <v>20</v>
@@ -4480,22 +4495,22 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C127" t="s">
+        <v>299</v>
+      </c>
+      <c r="D127" t="s">
         <v>354</v>
       </c>
-      <c r="D127" t="s">
-        <v>355</v>
-      </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -4503,48 +4518,48 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="D129" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4555,82 +4570,82 @@
         <v>358</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="D130" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="E130" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
         <v>361</v>
       </c>
-      <c r="B131" t="s">
-        <v>362</v>
-      </c>
-      <c r="C131" t="s">
-        <v>363</v>
-      </c>
-      <c r="D131" t="s">
-        <v>364</v>
-      </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
+        <v>362</v>
+      </c>
+      <c r="B132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" t="s">
         <v>365</v>
       </c>
-      <c r="B132" t="s">
-        <v>366</v>
-      </c>
-      <c r="C132" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" t="s">
-        <v>367</v>
-      </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" t="s">
+        <v>367</v>
+      </c>
+      <c r="C133" t="s">
         <v>368</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>369</v>
       </c>
-      <c r="C133" t="s">
-        <v>64</v>
-      </c>
-      <c r="D133" t="s">
-        <v>370</v>
-      </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>25</v>
@@ -4641,42 +4656,42 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C134" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>372</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E135" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
         <v>25</v>
@@ -4687,109 +4702,109 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
+        <v>373</v>
+      </c>
+      <c r="B136" t="s">
         <v>374</v>
       </c>
-      <c r="B136" t="s">
-        <v>375</v>
-      </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="D136" t="s">
         <v>376</v>
       </c>
       <c r="E136" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
+        <v>373</v>
+      </c>
+      <c r="B137" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" t="s">
         <v>377</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>378</v>
       </c>
-      <c r="C137" t="s">
-        <v>78</v>
-      </c>
-      <c r="D137" t="s">
-        <v>379</v>
-      </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
+        <v>379</v>
+      </c>
+      <c r="B138" t="s">
         <v>380</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
         <v>381</v>
       </c>
-      <c r="C138" t="s">
-        <v>198</v>
-      </c>
-      <c r="D138" t="s">
-        <v>382</v>
-      </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
+        <v>382</v>
+      </c>
+      <c r="B139" t="s">
         <v>383</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" t="s">
         <v>384</v>
       </c>
-      <c r="C139" t="s">
-        <v>385</v>
-      </c>
-      <c r="D139" t="s">
-        <v>386</v>
-      </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
         <v>20</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
+        <v>385</v>
+      </c>
+      <c r="B140" t="s">
+        <v>386</v>
+      </c>
+      <c r="C140" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" t="s">
         <v>387</v>
       </c>
-      <c r="B140" t="s">
-        <v>388</v>
-      </c>
-      <c r="C140" t="s">
-        <v>389</v>
-      </c>
-      <c r="D140" t="s">
-        <v>390</v>
-      </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
@@ -4797,27 +4812,27 @@
         <v>25</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" t="s">
+        <v>389</v>
+      </c>
+      <c r="C141" t="s">
+        <v>390</v>
+      </c>
+      <c r="D141" t="s">
         <v>391</v>
-      </c>
-      <c r="B141" t="s">
-        <v>392</v>
-      </c>
-      <c r="C141" t="s">
-        <v>393</v>
-      </c>
-      <c r="D141" t="s">
-        <v>394</v>
       </c>
       <c r="E141" t="s">
         <v>84</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -4825,68 +4840,68 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B142" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C142" t="s">
+        <v>394</v>
+      </c>
+      <c r="D142" t="s">
         <v>395</v>
       </c>
-      <c r="D142" t="s">
-        <v>396</v>
-      </c>
       <c r="E142" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
+        <v>396</v>
+      </c>
+      <c r="B143" t="s">
         <v>397</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>398</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>399</v>
-      </c>
-      <c r="D143" t="s">
-        <v>90</v>
       </c>
       <c r="E143" t="s">
         <v>84</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
+        <v>396</v>
+      </c>
+      <c r="B144" t="s">
+        <v>397</v>
+      </c>
+      <c r="C144" t="s">
         <v>400</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>401</v>
       </c>
-      <c r="C144" t="s">
-        <v>354</v>
-      </c>
-      <c r="D144" t="s">
-        <v>402</v>
-      </c>
       <c r="E144" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -4894,42 +4909,42 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="D145" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="D146" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E146" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F146" t="s">
         <v>25</v>
@@ -4940,22 +4955,22 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="D147" t="s">
-        <v>409</v>
+        <v>191</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G147" t="s">
         <v>14</v>
@@ -4963,10 +4978,10 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C148" t="s">
         <v>410</v>
@@ -4975,12 +4990,58 @@
         <v>411</v>
       </c>
       <c r="E148" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>412</v>
+      </c>
+      <c r="B149" t="s">
+        <v>413</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>412</v>
+      </c>
+      <c r="B150" t="s">
+        <v>413</v>
+      </c>
+      <c r="C150" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" t="s">
+        <v>416</v>
+      </c>
+      <c r="E150" t="s">
         <v>19</v>
       </c>
-      <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="F150" t="s">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s">
         <v>31</v>
       </c>
     </row>
